--- a/target_workbook.xlsx
+++ b/target_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesmacdonald/Dropbox/Box Sync/code/fidelityReview/fidelity-portfolio-review/fidelity-portfolio-review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC2B146-1988-0344-ABA3-A37D4DE0463E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61629BA0-6689-AF49-B2B8-B60FB8EFCF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34420" yWindow="3380" windowWidth="29000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,13 +90,7 @@
     <t>p/b</t>
   </si>
   <si>
-    <t>price to debt</t>
-  </si>
-  <si>
     <t>52-week Performance (%)</t>
-  </si>
-  <si>
-    <t>Institutional Ownership</t>
   </si>
   <si>
     <t>Notes</t>
@@ -146,6 +140,15 @@
   <si>
     <t>Div Yield</t>
   </si>
+  <si>
+    <t>Debt/Equity TTM</t>
+  </si>
+  <si>
+    <t>Debt/Equity Recent Quarter</t>
+  </si>
+  <si>
+    <t>1yr-Price Target</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +194,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="761">
+  <dxfs count="652">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -343,6 +366,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -373,6 +477,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -485,26 +609,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -534,6 +638,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -695,6 +819,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -725,6 +930,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -886,6 +1141,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -916,6 +1252,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1077,6 +1463,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1107,6 +1574,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1268,6 +1785,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1298,6 +1896,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1459,6 +2107,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1489,6 +2218,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1650,6 +2429,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1680,6 +2540,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1841,6 +2751,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1871,6 +2862,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2032,6 +3073,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -2062,6 +3184,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2223,6 +3395,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -2253,6 +3506,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2414,6 +3717,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -2444,6 +3828,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2516,6 +3950,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2605,6 +4049,97 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -2635,6 +4170,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2796,6 +4381,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -2826,6 +4492,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2987,6 +4703,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -3017,6 +4814,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3178,6 +5025,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -3208,6 +5136,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3280,16 +5258,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3320,6 +5288,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3350,26 +5328,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3399,6 +5357,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3471,16 +5449,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3511,6 +5479,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3541,26 +5519,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3590,6 +5548,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3662,16 +5640,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3702,6 +5670,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3732,26 +5710,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3781,6 +5739,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3942,6 +5920,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -3972,6 +6031,86 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -4044,16 +6183,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4084,6 +6213,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4114,26 +6253,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4159,3212 +6278,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7779,13 +6692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL114"/>
+  <dimension ref="A1:AM114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7810,21 +6723,22 @@
     <col min="20" max="21" width="16.6640625" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
-    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="44.33203125" customWidth="1"/>
-    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="44.33203125" customWidth="1"/>
+    <col min="36" max="36" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7856,7 +6770,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -7865,10 +6779,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -7883,10 +6797,10 @@
         <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -7895,52 +6809,55 @@
         <v>17</v>
       </c>
       <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -7953,7 +6870,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -7966,7 +6883,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -7979,7 +6896,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -7992,7 +6909,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -8005,7 +6922,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -8018,7 +6935,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -8031,7 +6948,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -8044,7 +6961,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -8057,7 +6974,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -8070,7 +6987,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -8083,7 +7000,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -8096,7 +7013,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8109,7 +7026,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -8122,7 +7039,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -9400,2602 +8317,2611 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="760" priority="765" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="651" priority="767" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:U2 Q5:U5 Q7:U7 Q10:U11 Q14:U15 Q17:U17 Q19:U20 Q22:U23 Q26:U27 Q30:U31 Q33:U34 Q37:U37 Q39:U42 Q44:U68 Q71:U72 Q74:U74 Q77:U79 Q82:U82 Q84:U84 Q87:U87 Q90:U92 Q95:U102 Q104:U104 Q106:U107 Q109:U1048576">
-    <cfRule type="containsText" dxfId="759" priority="762" operator="containsText" text="Bullish">
+  <conditionalFormatting sqref="Q1:U2 Q5:U5 Q7:U7 Q10:U11 Q14:U15 Q17:U17 Q19:U20 Q22:U23 Q26:U27 Q30:U31 Q33:U34 Q37:U37 Q39:U42 Q44:U68 Q71:U72 Q74:U74 Q77:U79 Q82:U82 Q84:U84 Q87:U87 Q90:U92 Q95:U102 Q104:U104 Q106:U107 Q109:U1048576 X1">
+    <cfRule type="containsText" dxfId="650" priority="764" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="763" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="649" priority="765" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="764" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="648" priority="766" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:AC2 X5:AC5 X7:AC7 X10:AC11 X14:AC15 X17:AC17 X19:AC20 X22:AC23 X26:AC27 X30:AC31 X33:AC34 X37:AC37 X39:AC42 X44:AC68 X71:AC72 X74:AC74 X77:AC79 X82:AC82 X84:AC84 X87:AC87 X90:AC92 X95:AC102 X104:AC104 X106:AC107 X109:AC1048576">
-    <cfRule type="cellIs" dxfId="756" priority="759" operator="greaterThan">
+  <conditionalFormatting sqref="Y1:AD2 Y5:AD5 Y7:AD7 Y10:AD11 Y14:AD15 Y17:AD17 Y19:AD20 Y22:AD23 Y26:AD27 Y30:AD31 Y33:AD34 Y37:AD37 Y39:AD42 Y44:AD68 Y71:AD72 Y74:AD74 Y77:AD79 Y82:AD82 Y84:AD84 Y87:AD87 Y90:AD92 Y95:AD102 Y104:AD104 Y106:AD107 Y109:AD1048576">
+    <cfRule type="cellIs" dxfId="647" priority="761" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="760" operator="between">
+    <cfRule type="cellIs" dxfId="646" priority="762" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="761" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD2 AD5 AD7 AD10:AD11 AD14:AD15 AD17 AD19:AD20 AD22:AD23 AD26:AD27 AD30:AD31 AD33:AD34 AD37 AD39:AD42 AD44:AD68 AD71:AD72 AD74 AD77:AD79 AD82 AD84 AD87 AD90:AD92 AD95:AD102 AD104 AD106:AD107 AD109:AD1048576">
-    <cfRule type="cellIs" dxfId="753" priority="756" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="757" operator="between">
+    <cfRule type="cellIs" dxfId="645" priority="763" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AF2 AE5:AF5 AE7:AF7 AE10:AF11 AE14:AF15 AE17:AF17 AE19:AF20 AE22:AF23 AE26:AF27 AE30:AF31 AE33:AF34 AE37:AF37 AE39:AF42 AE44:AF68 AE71:AF72 AE74:AF74 AE77:AF79 AE82:AF82 AE84:AF84 AE87:AF87 AE90:AF92 AE95:AF102 AE104:AF104 AE106:AF107 AE109:AF1048576 AE1">
+    <cfRule type="cellIs" dxfId="644" priority="758" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="759" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="758" operator="lessThan">
+    <cfRule type="cellIs" dxfId="642" priority="760" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE2 AE5 AE7 AE10:AE11 AE14:AE15 AE17 AE19:AE20 AE22:AE23 AE26:AE27 AE30:AE31 AE33:AE34 AE37 AE39:AE42 AE44:AE68 AE71:AE72 AE74 AE77:AE79 AE82 AE84 AE87 AE90:AE92 AE95:AE102 AE104 AE106:AE107 AE109:AE1048576">
-    <cfRule type="cellIs" dxfId="747" priority="751" operator="lessThan">
+  <conditionalFormatting sqref="AG1:AG2 AG5 AG7 AG10:AG11 AG14:AG15 AG17 AG19:AG20 AG22:AG23 AG26:AG27 AG30:AG31 AG33:AG34 AG37 AG39:AG42 AG44:AG68 AG71:AG72 AG74 AG77:AG79 AG82 AG84 AG87 AG90:AG92 AG95:AG102 AG104 AG106:AG107 AG109:AG1048576">
+    <cfRule type="cellIs" dxfId="641" priority="753" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="752" operator="between">
+    <cfRule type="cellIs" dxfId="640" priority="754" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF2 AF5 AF7 AF10:AF11 AF14:AF15 AF17 AF19:AF20 AF22:AF23 AF26:AF27 AF30:AF31 AF33:AF34 AF37 AF39:AF42 AF44:AF68 AF71:AF72 AF74 AF77:AF79 AF82 AF84 AF87 AF90:AF92 AF95:AF102 AF104 AF106:AF107 AF109:AF1048576">
-    <cfRule type="cellIs" dxfId="745" priority="748" operator="lessThan">
+  <conditionalFormatting sqref="AH1:AH2 AH5 AH7 AH10:AH11 AH14:AH15 AH17 AH19:AH20 AH22:AH23 AH26:AH27 AH30:AH31 AH33:AH34 AH37 AH39:AH42 AH44:AH68 AH71:AH72 AH74 AH77:AH79 AH82 AH84 AH87 AH90:AH92 AH95:AH102 AH104 AH106:AH107 AH109:AH1048576">
+    <cfRule type="cellIs" dxfId="639" priority="750" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="749" operator="between">
+    <cfRule type="cellIs" dxfId="638" priority="751" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="750" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="637" priority="752" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P2 P5 P7 P10:P11 P14:P15 P17 P19:P20 P22:P23 P26:P27 P30:P31 P33:P34 P37 P39:P42 P44:P68 P71:P72 P74 P77:P79 P82 P84 P87 P90:P92 P95:P102 P104 P106:P107 P109:P1048576">
-    <cfRule type="cellIs" dxfId="742" priority="741" operator="lessThan">
+    <cfRule type="cellIs" dxfId="636" priority="743" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="742" operator="between">
+    <cfRule type="cellIs" dxfId="635" priority="744" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="743" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="634" priority="745" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH5 AH7 AH10:AH1048576">
-    <cfRule type="containsText" dxfId="739" priority="738" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",AH1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="739" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",AH1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="740" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",AH1)))</formula>
+  <conditionalFormatting sqref="AI1:AI5 AI7 AI10:AI1048576">
+    <cfRule type="containsText" dxfId="633" priority="740" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",AI1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="632" priority="741" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",AI1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="631" priority="742" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U3">
-    <cfRule type="containsText" dxfId="736" priority="735" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="630" priority="737" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="736" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="629" priority="738" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="737" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="628" priority="739" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:AC3">
-    <cfRule type="cellIs" dxfId="733" priority="732" operator="greaterThan">
+  <conditionalFormatting sqref="Y3:AD3">
+    <cfRule type="cellIs" dxfId="627" priority="734" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="733" operator="between">
+    <cfRule type="cellIs" dxfId="626" priority="735" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="734" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3">
-    <cfRule type="cellIs" dxfId="730" priority="729" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="730" operator="between">
+    <cfRule type="cellIs" dxfId="625" priority="736" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AF3">
+    <cfRule type="cellIs" dxfId="624" priority="731" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="623" priority="732" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="731" operator="lessThan">
+    <cfRule type="cellIs" dxfId="622" priority="733" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="724" priority="724" operator="lessThan">
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="cellIs" dxfId="621" priority="726" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="725" operator="between">
+    <cfRule type="cellIs" dxfId="620" priority="727" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3">
-    <cfRule type="cellIs" dxfId="722" priority="721" operator="lessThan">
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="cellIs" dxfId="619" priority="723" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="722" operator="between">
+    <cfRule type="cellIs" dxfId="618" priority="724" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="723" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="617" priority="725" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="719" priority="718" operator="lessThan">
+    <cfRule type="cellIs" dxfId="616" priority="720" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="719" operator="between">
+    <cfRule type="cellIs" dxfId="615" priority="721" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="720" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="614" priority="722" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="716" priority="698" operator="lessThan">
+    <cfRule type="cellIs" dxfId="613" priority="700" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="699" operator="between">
+    <cfRule type="cellIs" dxfId="612" priority="701" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="700" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="611" priority="702" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U4">
-    <cfRule type="containsText" dxfId="713" priority="715" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="610" priority="717" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="716" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="609" priority="718" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="717" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="608" priority="719" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:AC4">
-    <cfRule type="cellIs" dxfId="710" priority="712" operator="greaterThan">
+  <conditionalFormatting sqref="Y4:AD4">
+    <cfRule type="cellIs" dxfId="607" priority="714" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="713" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="715" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="714" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="707" priority="709" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="605" priority="716" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4:AF4">
+    <cfRule type="cellIs" dxfId="604" priority="711" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="712" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="711" operator="lessThan">
+    <cfRule type="cellIs" dxfId="602" priority="713" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4">
-    <cfRule type="cellIs" dxfId="701" priority="704" operator="lessThan">
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="cellIs" dxfId="601" priority="706" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="705" operator="between">
+    <cfRule type="cellIs" dxfId="600" priority="707" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4">
-    <cfRule type="cellIs" dxfId="699" priority="701" operator="lessThan">
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="cellIs" dxfId="599" priority="703" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="702" operator="between">
+    <cfRule type="cellIs" dxfId="598" priority="704" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="703" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="597" priority="705" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="696" priority="589" operator="lessThan">
+    <cfRule type="cellIs" dxfId="596" priority="591" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="590" operator="between">
+    <cfRule type="cellIs" dxfId="595" priority="592" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="591" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="594" priority="593" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:U6">
-    <cfRule type="containsText" dxfId="693" priority="695" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="593" priority="697" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="696" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="592" priority="698" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="697" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="591" priority="699" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:AC6">
-    <cfRule type="cellIs" dxfId="690" priority="692" operator="greaterThan">
+  <conditionalFormatting sqref="Y6:AD6">
+    <cfRule type="cellIs" dxfId="590" priority="694" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="693" operator="between">
+    <cfRule type="cellIs" dxfId="589" priority="695" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="694" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD6">
-    <cfRule type="cellIs" dxfId="687" priority="689" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="690" operator="between">
+    <cfRule type="cellIs" dxfId="588" priority="696" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE6:AF6">
+    <cfRule type="cellIs" dxfId="587" priority="691" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="692" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="691" operator="lessThan">
+    <cfRule type="cellIs" dxfId="585" priority="693" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE6">
-    <cfRule type="cellIs" dxfId="681" priority="684" operator="lessThan">
+  <conditionalFormatting sqref="AG6">
+    <cfRule type="cellIs" dxfId="584" priority="686" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="685" operator="between">
+    <cfRule type="cellIs" dxfId="583" priority="687" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6">
-    <cfRule type="cellIs" dxfId="679" priority="681" operator="lessThan">
+  <conditionalFormatting sqref="AH6">
+    <cfRule type="cellIs" dxfId="582" priority="683" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="682" operator="between">
+    <cfRule type="cellIs" dxfId="581" priority="684" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="683" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="580" priority="685" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="676" priority="678" operator="lessThan">
+    <cfRule type="cellIs" dxfId="579" priority="680" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="679" operator="between">
+    <cfRule type="cellIs" dxfId="578" priority="681" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="680" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="577" priority="682" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH6">
-    <cfRule type="containsText" dxfId="673" priority="675" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",AH6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="676" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",AH6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="677" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",AH6)))</formula>
+  <conditionalFormatting sqref="AI6">
+    <cfRule type="containsText" dxfId="576" priority="677" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",AI6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="575" priority="678" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",AI6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="574" priority="679" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",AI6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:U8">
-    <cfRule type="containsText" dxfId="670" priority="672" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="573" priority="674" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="673" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="572" priority="675" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="674" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="571" priority="676" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:AC8">
-    <cfRule type="cellIs" dxfId="667" priority="669" operator="greaterThan">
+  <conditionalFormatting sqref="Y8:AD8">
+    <cfRule type="cellIs" dxfId="570" priority="671" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="670" operator="between">
+    <cfRule type="cellIs" dxfId="569" priority="672" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="671" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8">
-    <cfRule type="cellIs" dxfId="664" priority="666" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="667" operator="between">
+    <cfRule type="cellIs" dxfId="568" priority="673" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8:AF8">
+    <cfRule type="cellIs" dxfId="567" priority="668" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="566" priority="669" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="668" operator="lessThan">
+    <cfRule type="cellIs" dxfId="565" priority="670" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="658" priority="661" operator="lessThan">
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="564" priority="663" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="662" operator="between">
+    <cfRule type="cellIs" dxfId="563" priority="664" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="656" priority="658" operator="lessThan">
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="562" priority="660" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="659" operator="between">
+    <cfRule type="cellIs" dxfId="561" priority="661" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="660" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="560" priority="662" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="653" priority="655" operator="lessThan">
+    <cfRule type="cellIs" dxfId="559" priority="657" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="656" operator="between">
+    <cfRule type="cellIs" dxfId="558" priority="658" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="657" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="557" priority="659" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="containsText" dxfId="650" priority="652" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",AH8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="653" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",AH8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="654" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",AH8)))</formula>
+  <conditionalFormatting sqref="AI8">
+    <cfRule type="containsText" dxfId="556" priority="654" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",AI8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="555" priority="655" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",AI8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="554" priority="656" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",AI8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:U9">
-    <cfRule type="containsText" dxfId="647" priority="649" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="553" priority="651" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="650" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="552" priority="652" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="651" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="551" priority="653" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X9:AC9">
-    <cfRule type="cellIs" dxfId="644" priority="646" operator="greaterThan">
+  <conditionalFormatting sqref="Y9:AD9">
+    <cfRule type="cellIs" dxfId="550" priority="648" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="647" operator="between">
+    <cfRule type="cellIs" dxfId="549" priority="649" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="648" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9">
-    <cfRule type="cellIs" dxfId="641" priority="643" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="644" operator="between">
+    <cfRule type="cellIs" dxfId="548" priority="650" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AF9">
+    <cfRule type="cellIs" dxfId="547" priority="645" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="646" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="645" operator="lessThan">
+    <cfRule type="cellIs" dxfId="545" priority="647" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="635" priority="638" operator="lessThan">
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="544" priority="640" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="639" operator="between">
+    <cfRule type="cellIs" dxfId="543" priority="641" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="633" priority="635" operator="lessThan">
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="542" priority="637" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="636" operator="between">
+    <cfRule type="cellIs" dxfId="541" priority="638" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="637" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="540" priority="639" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="630" priority="632" operator="lessThan">
+    <cfRule type="cellIs" dxfId="539" priority="634" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="633" operator="between">
+    <cfRule type="cellIs" dxfId="538" priority="635" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="634" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="537" priority="636" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="containsText" dxfId="627" priority="629" operator="containsText" text="Buy">
-      <formula>NOT(ISERROR(SEARCH("Buy",AH9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="630" operator="containsText" text="Sell">
-      <formula>NOT(ISERROR(SEARCH("Sell",AH9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="631" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",AH9)))</formula>
+  <conditionalFormatting sqref="AI9">
+    <cfRule type="containsText" dxfId="536" priority="631" operator="containsText" text="Buy">
+      <formula>NOT(ISERROR(SEARCH("Buy",AI9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="632" operator="containsText" text="Sell">
+      <formula>NOT(ISERROR(SEARCH("Sell",AI9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="633" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",AI9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:U12">
-    <cfRule type="containsText" dxfId="624" priority="626" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="533" priority="628" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="627" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="532" priority="629" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="628" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="531" priority="630" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:AC12">
-    <cfRule type="cellIs" dxfId="621" priority="623" operator="greaterThan">
+  <conditionalFormatting sqref="Y12:AD12">
+    <cfRule type="cellIs" dxfId="530" priority="625" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="624" operator="between">
+    <cfRule type="cellIs" dxfId="529" priority="626" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="625" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD12">
-    <cfRule type="cellIs" dxfId="618" priority="620" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="621" operator="between">
+    <cfRule type="cellIs" dxfId="528" priority="627" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12:AF12">
+    <cfRule type="cellIs" dxfId="527" priority="622" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="623" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="622" operator="lessThan">
+    <cfRule type="cellIs" dxfId="525" priority="624" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="612" priority="615" operator="lessThan">
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="524" priority="617" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="616" operator="between">
+    <cfRule type="cellIs" dxfId="523" priority="618" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="610" priority="612" operator="lessThan">
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="522" priority="614" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="613" operator="between">
+    <cfRule type="cellIs" dxfId="521" priority="615" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="614" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="520" priority="616" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="607" priority="609" operator="lessThan">
+    <cfRule type="cellIs" dxfId="519" priority="611" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="610" operator="between">
+    <cfRule type="cellIs" dxfId="518" priority="612" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="611" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="517" priority="613" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:U13">
-    <cfRule type="containsText" dxfId="604" priority="606" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="516" priority="608" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="607" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="515" priority="609" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="608" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="514" priority="610" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:AC13">
-    <cfRule type="cellIs" dxfId="601" priority="603" operator="greaterThan">
+  <conditionalFormatting sqref="Y13:AD13">
+    <cfRule type="cellIs" dxfId="513" priority="605" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="604" operator="between">
+    <cfRule type="cellIs" dxfId="512" priority="606" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="605" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD13">
-    <cfRule type="cellIs" dxfId="598" priority="600" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="601" operator="between">
+    <cfRule type="cellIs" dxfId="511" priority="607" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13:AF13">
+    <cfRule type="cellIs" dxfId="510" priority="602" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="603" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="602" operator="lessThan">
+    <cfRule type="cellIs" dxfId="508" priority="604" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="592" priority="595" operator="lessThan">
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="507" priority="597" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="596" operator="between">
+    <cfRule type="cellIs" dxfId="506" priority="598" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="590" priority="592" operator="lessThan">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="505" priority="594" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="593" operator="between">
+    <cfRule type="cellIs" dxfId="504" priority="595" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="594" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="503" priority="596" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="587" priority="569" operator="lessThan">
+    <cfRule type="cellIs" dxfId="502" priority="571" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="570" operator="between">
+    <cfRule type="cellIs" dxfId="501" priority="572" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="571" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="500" priority="573" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:U16">
-    <cfRule type="containsText" dxfId="584" priority="586" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="499" priority="588" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="587" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="498" priority="589" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="588" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="497" priority="590" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:AC16">
-    <cfRule type="cellIs" dxfId="581" priority="583" operator="greaterThan">
+  <conditionalFormatting sqref="Y16:AD16">
+    <cfRule type="cellIs" dxfId="496" priority="585" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="495" priority="586" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="585" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="cellIs" dxfId="578" priority="580" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="581" operator="between">
+    <cfRule type="cellIs" dxfId="494" priority="587" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16:AF16">
+    <cfRule type="cellIs" dxfId="493" priority="582" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="583" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="582" operator="lessThan">
+    <cfRule type="cellIs" dxfId="491" priority="584" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="572" priority="575" operator="lessThan">
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="490" priority="577" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="576" operator="between">
+    <cfRule type="cellIs" dxfId="489" priority="578" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF16">
-    <cfRule type="cellIs" dxfId="570" priority="572" operator="lessThan">
+  <conditionalFormatting sqref="AH16">
+    <cfRule type="cellIs" dxfId="488" priority="574" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="573" operator="between">
+    <cfRule type="cellIs" dxfId="487" priority="575" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="574" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="486" priority="576" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="567" priority="549" operator="lessThan">
+    <cfRule type="cellIs" dxfId="485" priority="551" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="550" operator="between">
+    <cfRule type="cellIs" dxfId="484" priority="552" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="551" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="483" priority="553" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:U18">
-    <cfRule type="containsText" dxfId="564" priority="566" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="482" priority="568" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="567" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="481" priority="569" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="568" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="480" priority="570" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18:AC18">
-    <cfRule type="cellIs" dxfId="561" priority="563" operator="greaterThan">
+  <conditionalFormatting sqref="Y18:AD18">
+    <cfRule type="cellIs" dxfId="479" priority="565" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="564" operator="between">
+    <cfRule type="cellIs" dxfId="478" priority="566" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="565" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD18">
-    <cfRule type="cellIs" dxfId="558" priority="560" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="561" operator="between">
+    <cfRule type="cellIs" dxfId="477" priority="567" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE18:AF18">
+    <cfRule type="cellIs" dxfId="476" priority="562" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="563" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="562" operator="lessThan">
+    <cfRule type="cellIs" dxfId="474" priority="564" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE18">
-    <cfRule type="cellIs" dxfId="552" priority="555" operator="lessThan">
+  <conditionalFormatting sqref="AG18">
+    <cfRule type="cellIs" dxfId="473" priority="557" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="472" priority="558" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18">
-    <cfRule type="cellIs" dxfId="550" priority="552" operator="lessThan">
+  <conditionalFormatting sqref="AH18">
+    <cfRule type="cellIs" dxfId="471" priority="554" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="553" operator="between">
+    <cfRule type="cellIs" dxfId="470" priority="555" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="554" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="469" priority="556" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="547" priority="529" operator="lessThan">
+    <cfRule type="cellIs" dxfId="468" priority="531" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="530" operator="between">
+    <cfRule type="cellIs" dxfId="467" priority="532" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="531" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="466" priority="533" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21:U21">
-    <cfRule type="containsText" dxfId="544" priority="546" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="465" priority="548" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="547" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="464" priority="549" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="548" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="463" priority="550" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21:AC21">
-    <cfRule type="cellIs" dxfId="541" priority="543" operator="greaterThan">
+  <conditionalFormatting sqref="Y21:AD21">
+    <cfRule type="cellIs" dxfId="462" priority="545" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="544" operator="between">
+    <cfRule type="cellIs" dxfId="461" priority="546" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="545" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD21">
-    <cfRule type="cellIs" dxfId="538" priority="540" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="541" operator="between">
+    <cfRule type="cellIs" dxfId="460" priority="547" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21:AF21">
+    <cfRule type="cellIs" dxfId="459" priority="542" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="543" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="542" operator="lessThan">
+    <cfRule type="cellIs" dxfId="457" priority="544" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="532" priority="535" operator="lessThan">
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="456" priority="537" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="536" operator="between">
+    <cfRule type="cellIs" dxfId="455" priority="538" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="530" priority="532" operator="lessThan">
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="454" priority="534" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="533" operator="between">
+    <cfRule type="cellIs" dxfId="453" priority="535" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="534" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="452" priority="536" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="527" priority="489" operator="lessThan">
+    <cfRule type="cellIs" dxfId="451" priority="491" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="490" operator="between">
+    <cfRule type="cellIs" dxfId="450" priority="492" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="491" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="449" priority="493" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:U24">
-    <cfRule type="containsText" dxfId="524" priority="526" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="448" priority="528" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="527" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="447" priority="529" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="528" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="446" priority="530" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24:AC24">
-    <cfRule type="cellIs" dxfId="521" priority="523" operator="greaterThan">
+  <conditionalFormatting sqref="Y24:AD24">
+    <cfRule type="cellIs" dxfId="445" priority="525" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="524" operator="between">
+    <cfRule type="cellIs" dxfId="444" priority="526" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="525" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD24">
-    <cfRule type="cellIs" dxfId="518" priority="520" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="521" operator="between">
+    <cfRule type="cellIs" dxfId="443" priority="527" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24:AF24">
+    <cfRule type="cellIs" dxfId="442" priority="522" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="523" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="522" operator="lessThan">
+    <cfRule type="cellIs" dxfId="440" priority="524" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="512" priority="515" operator="lessThan">
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="439" priority="517" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="516" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="518" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="510" priority="512" operator="lessThan">
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="437" priority="514" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="513" operator="between">
+    <cfRule type="cellIs" dxfId="436" priority="515" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="514" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="435" priority="516" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" dxfId="507" priority="509" operator="lessThan">
+    <cfRule type="cellIs" dxfId="434" priority="511" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="510" operator="between">
+    <cfRule type="cellIs" dxfId="433" priority="512" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="511" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="432" priority="513" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:U25">
-    <cfRule type="containsText" dxfId="504" priority="506" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="431" priority="508" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="507" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="430" priority="509" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="508" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="429" priority="510" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25:AC25">
-    <cfRule type="cellIs" dxfId="501" priority="503" operator="greaterThan">
+  <conditionalFormatting sqref="Y25:AD25">
+    <cfRule type="cellIs" dxfId="428" priority="505" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="504" operator="between">
+    <cfRule type="cellIs" dxfId="427" priority="506" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="505" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="498" priority="500" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="501" operator="between">
+    <cfRule type="cellIs" dxfId="426" priority="507" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25:AF25">
+    <cfRule type="cellIs" dxfId="425" priority="502" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="503" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="502" operator="lessThan">
+    <cfRule type="cellIs" dxfId="423" priority="504" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="492" priority="495" operator="lessThan">
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="422" priority="497" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="496" operator="between">
+    <cfRule type="cellIs" dxfId="421" priority="498" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="490" priority="492" operator="lessThan">
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="420" priority="494" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="493" operator="between">
+    <cfRule type="cellIs" dxfId="419" priority="495" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="494" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="496" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="cellIs" dxfId="487" priority="447" operator="lessThan">
+    <cfRule type="cellIs" dxfId="417" priority="449" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="448" operator="between">
+    <cfRule type="cellIs" dxfId="416" priority="450" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="449" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="415" priority="451" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="containsText" dxfId="484" priority="488" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="414" priority="490" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",R28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:U28">
-    <cfRule type="containsText" dxfId="483" priority="485" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="413" priority="487" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="486" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="412" priority="488" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="487" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="411" priority="489" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X28:AC28">
-    <cfRule type="cellIs" dxfId="480" priority="482" operator="greaterThan">
+  <conditionalFormatting sqref="Y28:AD28">
+    <cfRule type="cellIs" dxfId="410" priority="484" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="483" operator="between">
+    <cfRule type="cellIs" dxfId="409" priority="485" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="484" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="477" priority="479" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="480" operator="between">
+    <cfRule type="cellIs" dxfId="408" priority="486" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28:AF28">
+    <cfRule type="cellIs" dxfId="407" priority="481" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="482" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="481" operator="lessThan">
+    <cfRule type="cellIs" dxfId="405" priority="483" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="471" priority="474" operator="lessThan">
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="404" priority="476" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="475" operator="between">
+    <cfRule type="cellIs" dxfId="403" priority="477" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="469" priority="471" operator="lessThan">
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="402" priority="473" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="472" operator="between">
+    <cfRule type="cellIs" dxfId="401" priority="474" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="473" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="400" priority="475" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="cellIs" dxfId="466" priority="468" operator="lessThan">
+    <cfRule type="cellIs" dxfId="399" priority="470" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="469" operator="between">
+    <cfRule type="cellIs" dxfId="398" priority="471" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="470" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="397" priority="472" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="containsText" dxfId="463" priority="467" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="396" priority="469" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",R29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:U29">
-    <cfRule type="containsText" dxfId="462" priority="464" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="395" priority="466" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="465" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="394" priority="467" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="466" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="393" priority="468" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X29:AC29">
-    <cfRule type="cellIs" dxfId="459" priority="461" operator="greaterThan">
+  <conditionalFormatting sqref="Y29:AD29">
+    <cfRule type="cellIs" dxfId="392" priority="463" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="462" operator="between">
+    <cfRule type="cellIs" dxfId="391" priority="464" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="463" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
-    <cfRule type="cellIs" dxfId="456" priority="458" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="459" operator="between">
+    <cfRule type="cellIs" dxfId="390" priority="465" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29:AF29">
+    <cfRule type="cellIs" dxfId="389" priority="460" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="461" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="460" operator="lessThan">
+    <cfRule type="cellIs" dxfId="387" priority="462" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="450" priority="453" operator="lessThan">
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="386" priority="455" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="454" operator="between">
+    <cfRule type="cellIs" dxfId="385" priority="456" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="448" priority="450" operator="lessThan">
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="384" priority="452" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="451" operator="between">
+    <cfRule type="cellIs" dxfId="383" priority="453" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="452" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="382" priority="454" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="445" priority="427" operator="lessThan">
+    <cfRule type="cellIs" dxfId="381" priority="429" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="428" operator="between">
+    <cfRule type="cellIs" dxfId="380" priority="430" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="429" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="379" priority="431" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:U32">
-    <cfRule type="containsText" dxfId="442" priority="444" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="378" priority="446" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="445" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="377" priority="447" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="446" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="376" priority="448" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X32:AC32">
-    <cfRule type="cellIs" dxfId="439" priority="441" operator="greaterThan">
+  <conditionalFormatting sqref="Y32:AD32">
+    <cfRule type="cellIs" dxfId="375" priority="443" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="442" operator="between">
+    <cfRule type="cellIs" dxfId="374" priority="444" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="443" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
-    <cfRule type="cellIs" dxfId="436" priority="438" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="439" operator="between">
+    <cfRule type="cellIs" dxfId="373" priority="445" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32:AF32">
+    <cfRule type="cellIs" dxfId="372" priority="440" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="371" priority="441" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="440" operator="lessThan">
+    <cfRule type="cellIs" dxfId="370" priority="442" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="430" priority="433" operator="lessThan">
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="369" priority="435" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="434" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="436" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="428" priority="430" operator="lessThan">
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="367" priority="432" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="431" operator="between">
+    <cfRule type="cellIs" dxfId="366" priority="433" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="432" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="434" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="cellIs" dxfId="425" priority="387" operator="lessThan">
+    <cfRule type="cellIs" dxfId="364" priority="389" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="388" operator="between">
+    <cfRule type="cellIs" dxfId="363" priority="390" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="389" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="391" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35:U35">
-    <cfRule type="containsText" dxfId="422" priority="424" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="361" priority="426" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="425" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="360" priority="427" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="426" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="359" priority="428" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X35:AC35">
-    <cfRule type="cellIs" dxfId="419" priority="421" operator="greaterThan">
+  <conditionalFormatting sqref="Y35:AD35">
+    <cfRule type="cellIs" dxfId="358" priority="423" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="422" operator="between">
+    <cfRule type="cellIs" dxfId="357" priority="424" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="423" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD35">
-    <cfRule type="cellIs" dxfId="416" priority="418" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="419" operator="between">
+    <cfRule type="cellIs" dxfId="356" priority="425" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35:AF35">
+    <cfRule type="cellIs" dxfId="355" priority="420" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="421" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="420" operator="lessThan">
+    <cfRule type="cellIs" dxfId="353" priority="422" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="410" priority="413" operator="lessThan">
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="352" priority="415" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="414" operator="between">
+    <cfRule type="cellIs" dxfId="351" priority="416" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="408" priority="410" operator="lessThan">
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="350" priority="412" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="411" operator="between">
+    <cfRule type="cellIs" dxfId="349" priority="413" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="412" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="414" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="cellIs" dxfId="405" priority="407" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="409" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="408" operator="between">
+    <cfRule type="cellIs" dxfId="346" priority="410" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="411" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36:U36">
-    <cfRule type="containsText" dxfId="402" priority="404" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="344" priority="406" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="405" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="343" priority="407" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="406" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="342" priority="408" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36:AC36">
-    <cfRule type="cellIs" dxfId="399" priority="401" operator="greaterThan">
+  <conditionalFormatting sqref="Y36:AD36">
+    <cfRule type="cellIs" dxfId="341" priority="403" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="402" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="404" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="403" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="396" priority="398" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="399" operator="between">
+    <cfRule type="cellIs" dxfId="339" priority="405" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36:AF36">
+    <cfRule type="cellIs" dxfId="338" priority="400" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="401" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="400" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="402" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="390" priority="393" operator="lessThan">
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="335" priority="395" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="394" operator="between">
+    <cfRule type="cellIs" dxfId="334" priority="396" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="388" priority="390" operator="lessThan">
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="333" priority="392" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="391" operator="between">
+    <cfRule type="cellIs" dxfId="332" priority="393" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="392" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="394" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="cellIs" dxfId="385" priority="367" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="369" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="368" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="370" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="369" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="371" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:U38">
-    <cfRule type="containsText" dxfId="382" priority="384" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="327" priority="386" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="385" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="326" priority="387" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="386" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="325" priority="388" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:AC38">
-    <cfRule type="cellIs" dxfId="379" priority="381" operator="greaterThan">
+  <conditionalFormatting sqref="Y38:AD38">
+    <cfRule type="cellIs" dxfId="324" priority="383" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="382" operator="between">
+    <cfRule type="cellIs" dxfId="323" priority="384" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="383" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD38">
-    <cfRule type="cellIs" dxfId="376" priority="378" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="379" operator="between">
+    <cfRule type="cellIs" dxfId="322" priority="385" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38:AF38">
+    <cfRule type="cellIs" dxfId="321" priority="380" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="381" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="380" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="382" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE38">
-    <cfRule type="cellIs" dxfId="370" priority="373" operator="lessThan">
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="cellIs" dxfId="318" priority="375" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="374" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="376" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
-    <cfRule type="cellIs" dxfId="368" priority="370" operator="lessThan">
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="cellIs" dxfId="316" priority="372" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="371" operator="between">
+    <cfRule type="cellIs" dxfId="315" priority="373" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="372" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="374" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43">
-    <cfRule type="cellIs" dxfId="365" priority="347" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="349" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="348" operator="between">
+    <cfRule type="cellIs" dxfId="312" priority="350" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="349" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="351" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43:U43">
-    <cfRule type="containsText" dxfId="362" priority="364" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="310" priority="366" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="365" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="309" priority="367" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="366" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="308" priority="368" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X43:AC43">
-    <cfRule type="cellIs" dxfId="359" priority="361" operator="greaterThan">
+  <conditionalFormatting sqref="Y43:AD43">
+    <cfRule type="cellIs" dxfId="307" priority="363" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="362" operator="between">
+    <cfRule type="cellIs" dxfId="306" priority="364" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="363" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD43">
-    <cfRule type="cellIs" dxfId="356" priority="358" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="359" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="365" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE43:AF43">
+    <cfRule type="cellIs" dxfId="304" priority="360" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="361" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="360" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="362" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE43">
-    <cfRule type="cellIs" dxfId="350" priority="353" operator="lessThan">
+  <conditionalFormatting sqref="AG43">
+    <cfRule type="cellIs" dxfId="301" priority="355" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="354" operator="between">
+    <cfRule type="cellIs" dxfId="300" priority="356" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF43">
-    <cfRule type="cellIs" dxfId="348" priority="350" operator="lessThan">
+  <conditionalFormatting sqref="AH43">
+    <cfRule type="cellIs" dxfId="299" priority="352" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="351" operator="between">
+    <cfRule type="cellIs" dxfId="298" priority="353" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="352" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="354" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P70">
-    <cfRule type="cellIs" dxfId="345" priority="307" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="309" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="308" operator="between">
+    <cfRule type="cellIs" dxfId="295" priority="310" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="309" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="311" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q69:U69">
-    <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="293" priority="346" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="345" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="292" priority="347" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="346" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="291" priority="348" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X69:AC69">
-    <cfRule type="cellIs" dxfId="339" priority="341" operator="greaterThan">
+  <conditionalFormatting sqref="Y69:AD69">
+    <cfRule type="cellIs" dxfId="290" priority="343" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="342" operator="between">
+    <cfRule type="cellIs" dxfId="289" priority="344" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="343" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD69">
-    <cfRule type="cellIs" dxfId="336" priority="338" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="339" operator="between">
+    <cfRule type="cellIs" dxfId="288" priority="345" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE69:AF69">
+    <cfRule type="cellIs" dxfId="287" priority="340" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="341" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="340" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="342" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE69">
-    <cfRule type="cellIs" dxfId="330" priority="333" operator="lessThan">
+  <conditionalFormatting sqref="AG69">
+    <cfRule type="cellIs" dxfId="284" priority="335" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="334" operator="between">
+    <cfRule type="cellIs" dxfId="283" priority="336" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF69">
-    <cfRule type="cellIs" dxfId="328" priority="330" operator="lessThan">
+  <conditionalFormatting sqref="AH69">
+    <cfRule type="cellIs" dxfId="282" priority="332" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="331" operator="between">
+    <cfRule type="cellIs" dxfId="281" priority="333" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="332" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="334" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P69">
-    <cfRule type="cellIs" dxfId="325" priority="327" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="329" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="328" operator="between">
+    <cfRule type="cellIs" dxfId="278" priority="330" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="329" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="331" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70:U70">
-    <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="276" priority="326" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="325" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="275" priority="327" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="326" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="274" priority="328" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X70:AC70">
-    <cfRule type="cellIs" dxfId="319" priority="321" operator="greaterThan">
+  <conditionalFormatting sqref="Y70:AD70">
+    <cfRule type="cellIs" dxfId="273" priority="323" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="322" operator="between">
+    <cfRule type="cellIs" dxfId="272" priority="324" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="323" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD70">
-    <cfRule type="cellIs" dxfId="316" priority="318" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="319" operator="between">
+    <cfRule type="cellIs" dxfId="271" priority="325" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE70:AF70">
+    <cfRule type="cellIs" dxfId="270" priority="320" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="321" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="320" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="322" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE70">
-    <cfRule type="cellIs" dxfId="310" priority="313" operator="lessThan">
+  <conditionalFormatting sqref="AG70">
+    <cfRule type="cellIs" dxfId="267" priority="315" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="314" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="316" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF70">
-    <cfRule type="cellIs" dxfId="308" priority="310" operator="lessThan">
+  <conditionalFormatting sqref="AH70">
+    <cfRule type="cellIs" dxfId="265" priority="312" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="264" priority="313" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="312" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="314" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73">
-    <cfRule type="cellIs" dxfId="305" priority="287" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="289" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="288" operator="between">
+    <cfRule type="cellIs" dxfId="261" priority="290" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="289" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="291" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q73:U73">
-    <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="259" priority="306" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="305" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="258" priority="307" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="306" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="257" priority="308" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X73:AC73">
-    <cfRule type="cellIs" dxfId="299" priority="301" operator="greaterThan">
+  <conditionalFormatting sqref="Y73:AD73">
+    <cfRule type="cellIs" dxfId="256" priority="303" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="302" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="304" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="303" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD73">
-    <cfRule type="cellIs" dxfId="296" priority="298" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="299" operator="between">
+    <cfRule type="cellIs" dxfId="254" priority="305" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE73:AF73">
+    <cfRule type="cellIs" dxfId="253" priority="300" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="301" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="300" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="302" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
-    <cfRule type="cellIs" dxfId="290" priority="293" operator="lessThan">
+  <conditionalFormatting sqref="AG73">
+    <cfRule type="cellIs" dxfId="250" priority="295" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="296" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF73">
-    <cfRule type="cellIs" dxfId="288" priority="290" operator="lessThan">
+  <conditionalFormatting sqref="AH73">
+    <cfRule type="cellIs" dxfId="248" priority="292" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="293" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="294" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="cellIs" dxfId="285" priority="247" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="249" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="249" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="251" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75:U75">
-    <cfRule type="containsText" dxfId="282" priority="284" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="242" priority="286" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="285" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="241" priority="287" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="286" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="240" priority="288" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X75:AC75">
-    <cfRule type="cellIs" dxfId="279" priority="281" operator="greaterThan">
+  <conditionalFormatting sqref="Y75:AD75">
+    <cfRule type="cellIs" dxfId="239" priority="283" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="282" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="284" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="283" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD75">
-    <cfRule type="cellIs" dxfId="276" priority="278" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="279" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="285" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE75:AF75">
+    <cfRule type="cellIs" dxfId="236" priority="280" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="281" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="280" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="282" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
-    <cfRule type="cellIs" dxfId="270" priority="273" operator="lessThan">
+  <conditionalFormatting sqref="AG75">
+    <cfRule type="cellIs" dxfId="233" priority="275" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="274" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="276" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75">
-    <cfRule type="cellIs" dxfId="268" priority="270" operator="lessThan">
+  <conditionalFormatting sqref="AH75">
+    <cfRule type="cellIs" dxfId="231" priority="272" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="271" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="273" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="272" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="274" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="cellIs" dxfId="265" priority="267" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="269" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="268" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="270" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="269" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="271" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q76:U76">
-    <cfRule type="containsText" dxfId="262" priority="264" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="225" priority="266" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="265" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="224" priority="267" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="266" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="223" priority="268" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X76:AC76">
-    <cfRule type="cellIs" dxfId="259" priority="261" operator="greaterThan">
+  <conditionalFormatting sqref="Y76:AD76">
+    <cfRule type="cellIs" dxfId="222" priority="263" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="264" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="263" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD76">
-    <cfRule type="cellIs" dxfId="256" priority="258" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="259" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="265" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE76:AF76">
+    <cfRule type="cellIs" dxfId="219" priority="260" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="261" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="260" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="262" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE76">
-    <cfRule type="cellIs" dxfId="250" priority="253" operator="lessThan">
+  <conditionalFormatting sqref="AG76">
+    <cfRule type="cellIs" dxfId="216" priority="255" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="254" operator="between">
+    <cfRule type="cellIs" dxfId="215" priority="256" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF76">
-    <cfRule type="cellIs" dxfId="248" priority="250" operator="lessThan">
+  <conditionalFormatting sqref="AH76">
+    <cfRule type="cellIs" dxfId="214" priority="252" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="253" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="254" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P81">
-    <cfRule type="cellIs" dxfId="245" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="209" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="208" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="210" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="209" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="211" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q80:U80">
-    <cfRule type="containsText" dxfId="242" priority="244" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="208" priority="246" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="245" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="207" priority="247" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="246" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="206" priority="248" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q80)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X80:AC80">
-    <cfRule type="cellIs" dxfId="239" priority="241" operator="greaterThan">
+  <conditionalFormatting sqref="Y80:AD80">
+    <cfRule type="cellIs" dxfId="205" priority="243" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="242" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="244" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="243" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD80">
-    <cfRule type="cellIs" dxfId="236" priority="238" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="239" operator="between">
+    <cfRule type="cellIs" dxfId="203" priority="245" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE80:AF80">
+    <cfRule type="cellIs" dxfId="202" priority="240" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="241" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="240" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="242" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE80">
-    <cfRule type="cellIs" dxfId="230" priority="233" operator="lessThan">
+  <conditionalFormatting sqref="AG80">
+    <cfRule type="cellIs" dxfId="199" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="236" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF80">
-    <cfRule type="cellIs" dxfId="228" priority="230" operator="lessThan">
+  <conditionalFormatting sqref="AH80">
+    <cfRule type="cellIs" dxfId="197" priority="232" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="231" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="233" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="232" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="234" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="cellIs" dxfId="225" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="229" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="228" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="230" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="229" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="231" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81:U81">
-    <cfRule type="containsText" dxfId="222" priority="224" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="191" priority="226" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="225" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="190" priority="227" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="226" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="189" priority="228" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X81:AC81">
-    <cfRule type="cellIs" dxfId="219" priority="221" operator="greaterThan">
+  <conditionalFormatting sqref="Y81:AD81">
+    <cfRule type="cellIs" dxfId="188" priority="223" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="222" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="224" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="223" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD81">
-    <cfRule type="cellIs" dxfId="216" priority="218" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="219" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="225" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE81:AF81">
+    <cfRule type="cellIs" dxfId="185" priority="220" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="221" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="222" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE81">
-    <cfRule type="cellIs" dxfId="210" priority="213" operator="lessThan">
+  <conditionalFormatting sqref="AG81">
+    <cfRule type="cellIs" dxfId="182" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="216" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF81">
-    <cfRule type="cellIs" dxfId="208" priority="210" operator="lessThan">
+  <conditionalFormatting sqref="AH81">
+    <cfRule type="cellIs" dxfId="180" priority="212" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="211" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="213" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="214" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="cellIs" dxfId="205" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="189" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="190" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="189" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="191" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83:U83">
-    <cfRule type="containsText" dxfId="202" priority="204" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="174" priority="206" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="205" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="173" priority="207" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="206" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="172" priority="208" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X83:AC83">
-    <cfRule type="cellIs" dxfId="199" priority="201" operator="greaterThan">
+  <conditionalFormatting sqref="Y83:AD83">
+    <cfRule type="cellIs" dxfId="171" priority="203" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="202" operator="between">
+    <cfRule type="cellIs" dxfId="170" priority="204" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="203" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD83">
-    <cfRule type="cellIs" dxfId="196" priority="198" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="199" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="205" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE83:AF83">
+    <cfRule type="cellIs" dxfId="168" priority="200" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="201" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="202" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE83">
-    <cfRule type="cellIs" dxfId="190" priority="193" operator="lessThan">
+  <conditionalFormatting sqref="AG83">
+    <cfRule type="cellIs" dxfId="165" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="196" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF83">
-    <cfRule type="cellIs" dxfId="188" priority="190" operator="lessThan">
+  <conditionalFormatting sqref="AH83">
+    <cfRule type="cellIs" dxfId="163" priority="192" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="191" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="193" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="194" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P86">
-    <cfRule type="cellIs" dxfId="185" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="149" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="148" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="150" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="151" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q85:U85">
-    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="157" priority="186" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="185" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="156" priority="187" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="186" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="155" priority="188" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q85)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X85:AC85">
-    <cfRule type="cellIs" dxfId="179" priority="181" operator="greaterThan">
+  <conditionalFormatting sqref="Y85:AD85">
+    <cfRule type="cellIs" dxfId="154" priority="183" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="184" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="183" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD85">
-    <cfRule type="cellIs" dxfId="176" priority="178" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="185" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE85:AF85">
+    <cfRule type="cellIs" dxfId="151" priority="180" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="181" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="182" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE85">
-    <cfRule type="cellIs" dxfId="170" priority="173" operator="lessThan">
+  <conditionalFormatting sqref="AG85">
+    <cfRule type="cellIs" dxfId="148" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="176" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF85">
-    <cfRule type="cellIs" dxfId="168" priority="170" operator="lessThan">
+  <conditionalFormatting sqref="AH85">
+    <cfRule type="cellIs" dxfId="146" priority="172" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="173" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="172" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="174" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85">
-    <cfRule type="cellIs" dxfId="165" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="169" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="170" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="171" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q86:U86">
-    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="140" priority="166" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="165" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="139" priority="167" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="166" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="138" priority="168" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X86:AC86">
-    <cfRule type="cellIs" dxfId="159" priority="161" operator="greaterThan">
+  <conditionalFormatting sqref="Y86:AD86">
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="164" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="163" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD86">
-    <cfRule type="cellIs" dxfId="156" priority="158" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="165" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE86:AF86">
+    <cfRule type="cellIs" dxfId="134" priority="160" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="161" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="162" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE86">
-    <cfRule type="cellIs" dxfId="150" priority="153" operator="lessThan">
+  <conditionalFormatting sqref="AG86">
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="154" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="156" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF86">
-    <cfRule type="cellIs" dxfId="148" priority="150" operator="lessThan">
+  <conditionalFormatting sqref="AH86">
+    <cfRule type="cellIs" dxfId="129" priority="152" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="153" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="154" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89">
-    <cfRule type="cellIs" dxfId="145" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="109" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="110" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="111" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q88:U88">
-    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="123" priority="146" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="145" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="122" priority="147" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="146" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="121" priority="148" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X88:AC88">
-    <cfRule type="cellIs" dxfId="139" priority="141" operator="greaterThan">
+  <conditionalFormatting sqref="Y88:AD88">
+    <cfRule type="cellIs" dxfId="120" priority="143" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="142" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="144" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD88">
-    <cfRule type="cellIs" dxfId="136" priority="138" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="145" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE88:AF88">
+    <cfRule type="cellIs" dxfId="117" priority="140" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="141" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="142" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE88">
-    <cfRule type="cellIs" dxfId="130" priority="133" operator="lessThan">
+  <conditionalFormatting sqref="AG88">
+    <cfRule type="cellIs" dxfId="114" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="136" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF88">
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="lessThan">
+  <conditionalFormatting sqref="AH88">
+    <cfRule type="cellIs" dxfId="112" priority="132" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="133" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="134" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P88">
-    <cfRule type="cellIs" dxfId="125" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="129" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="130" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="131" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q89:U89">
-    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="106" priority="126" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="125" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="105" priority="127" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="104" priority="128" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X89:AC89">
-    <cfRule type="cellIs" dxfId="119" priority="121" operator="greaterThan">
+  <conditionalFormatting sqref="Y89:AD89">
+    <cfRule type="cellIs" dxfId="103" priority="123" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="124" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="123" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD89">
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="125" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE89:AF89">
+    <cfRule type="cellIs" dxfId="100" priority="120" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="121" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="122" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE89">
-    <cfRule type="cellIs" dxfId="110" priority="113" operator="lessThan">
+  <conditionalFormatting sqref="AG89">
+    <cfRule type="cellIs" dxfId="97" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="116" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF89">
-    <cfRule type="cellIs" dxfId="108" priority="110" operator="lessThan">
+  <conditionalFormatting sqref="AH89">
+    <cfRule type="cellIs" dxfId="95" priority="112" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="113" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="114" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P94">
-    <cfRule type="cellIs" dxfId="105" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="69" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="70" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="71" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q93:U93">
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="89" priority="106" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="105" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="88" priority="107" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="106" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="87" priority="108" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q93)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X93:AC93">
-    <cfRule type="cellIs" dxfId="99" priority="101" operator="greaterThan">
+  <conditionalFormatting sqref="Y93:AD93">
+    <cfRule type="cellIs" dxfId="86" priority="103" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="104" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="103" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD93">
-    <cfRule type="cellIs" dxfId="96" priority="98" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE93:AF93">
+    <cfRule type="cellIs" dxfId="83" priority="100" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="101" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="102" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE93">
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="lessThan">
+  <conditionalFormatting sqref="AG93">
+    <cfRule type="cellIs" dxfId="80" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF93">
-    <cfRule type="cellIs" dxfId="88" priority="90" operator="lessThan">
+  <conditionalFormatting sqref="AH93">
+    <cfRule type="cellIs" dxfId="78" priority="92" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="91" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="93" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="94" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93">
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="89" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="90" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="91" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q94:U94">
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="72" priority="86" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="71" priority="87" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="70" priority="88" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X94:AC94">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="greaterThan">
+  <conditionalFormatting sqref="Y94:AD94">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD94">
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="85" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE94:AF94">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="81" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="82" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE94">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="lessThan">
+  <conditionalFormatting sqref="AG94">
+    <cfRule type="cellIs" dxfId="63" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF94">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="lessThan">
+  <conditionalFormatting sqref="AH94">
+    <cfRule type="cellIs" dxfId="61" priority="72" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="74" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P103">
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="49" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q103:U103">
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="55" priority="66" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="54" priority="67" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="53" priority="68" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q103)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X103:AC103">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="Y103:AD103">
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD103">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE103:AF103">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="61" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE103">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="lessThan">
+  <conditionalFormatting sqref="AG103">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF103">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="lessThan">
+  <conditionalFormatting sqref="AH103">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q105:U105">
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="46" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q105)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X105:AC105">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="Y105:AD105">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD105">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE105:AF105">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE105">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
+  <conditionalFormatting sqref="AG105">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF105">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
+  <conditionalFormatting sqref="AH105">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:U108">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Bullish">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Bullish">
       <formula>NOT(ISERROR(SEARCH("Bullish",Q108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Neutral">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Neutral">
       <formula>NOT(ISERROR(SEARCH("Neutral",Q108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Bearish">
+    <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="Bearish">
       <formula>NOT(ISERROR(SEARCH("Bearish",Q108)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X108:AC108">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
+  <conditionalFormatting sqref="Y108:AD108">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD108">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE108:AF108">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="between">
       <formula>3</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE108">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="AG108">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
       <formula>0</formula>
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF108">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="AH108">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="between">
       <formula>1.5</formula>
       <formula>7.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>7.65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P108">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>0.015</formula>
       <formula>0.0765</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.015</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0.0765</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0.03</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.03</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target_workbook.xlsx
+++ b/target_workbook.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesmacdonald/Dropbox/Box Sync/code/fidelityReview/fidelity-portfolio-review/fidelity-portfolio-review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61629BA0-6689-AF49-B2B8-B60FB8EFCF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CBFC55-0894-F743-8EE9-D149D9215A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34420" yWindow="3380" windowWidth="29000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio_Position_Nov-01-2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6695,7 +6695,7 @@
   <dimension ref="A1:AM114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
